--- a/natmiOut/OldD2/LR-pairs_lrc2p/Nid1-Itgav.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Nid1-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>93.42764966544679</v>
+        <v>93.42766950000001</v>
       </c>
       <c r="H2">
-        <v>93.42764966544679</v>
+        <v>186.855339</v>
       </c>
       <c r="I2">
-        <v>0.3305192438573158</v>
+        <v>0.319845868560297</v>
       </c>
       <c r="J2">
-        <v>0.3305192438573158</v>
+        <v>0.2501060805639032</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N2">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O2">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P2">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q2">
-        <v>1330.800247410233</v>
+        <v>1400.426110618343</v>
       </c>
       <c r="R2">
-        <v>1330.800247410233</v>
+        <v>5601.704442473371</v>
       </c>
       <c r="S2">
-        <v>0.01790296733621267</v>
+        <v>0.01774327767504522</v>
       </c>
       <c r="T2">
-        <v>0.01790296733621267</v>
+        <v>0.009738608381748308</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>93.42764966544679</v>
+        <v>93.42766950000001</v>
       </c>
       <c r="H3">
-        <v>93.42764966544679</v>
+        <v>186.855339</v>
       </c>
       <c r="I3">
-        <v>0.3305192438573158</v>
+        <v>0.319845868560297</v>
       </c>
       <c r="J3">
-        <v>0.3305192438573158</v>
+        <v>0.2501060805639032</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N3">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P3">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q3">
-        <v>5132.193127798383</v>
+        <v>5442.674946563564</v>
       </c>
       <c r="R3">
-        <v>5132.193127798383</v>
+        <v>32656.04967938138</v>
       </c>
       <c r="S3">
-        <v>0.06904228197200371</v>
+        <v>0.06895822074414863</v>
       </c>
       <c r="T3">
-        <v>0.06904228197200371</v>
+        <v>0.05677280591797743</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.42764966544679</v>
+        <v>93.42766950000001</v>
       </c>
       <c r="H4">
-        <v>93.42764966544679</v>
+        <v>186.855339</v>
       </c>
       <c r="I4">
-        <v>0.3305192438573158</v>
+        <v>0.319845868560297</v>
       </c>
       <c r="J4">
-        <v>0.3305192438573158</v>
+        <v>0.2501060805639032</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N4">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O4">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P4">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q4">
-        <v>7365.721312208899</v>
+        <v>7490.929358343932</v>
       </c>
       <c r="R4">
-        <v>7365.721312208899</v>
+        <v>44945.57615006359</v>
       </c>
       <c r="S4">
-        <v>0.09908945261825734</v>
+        <v>0.09490942695331359</v>
       </c>
       <c r="T4">
-        <v>0.09908945261825734</v>
+        <v>0.07813824686977795</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.42764966544679</v>
+        <v>93.42766950000001</v>
       </c>
       <c r="H5">
-        <v>93.42764966544679</v>
+        <v>186.855339</v>
       </c>
       <c r="I5">
-        <v>0.3305192438573158</v>
+        <v>0.319845868560297</v>
       </c>
       <c r="J5">
-        <v>0.3305192438573158</v>
+        <v>0.2501060805639032</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N5">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O5">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P5">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q5">
-        <v>7340.890208373726</v>
+        <v>7413.063686612096</v>
       </c>
       <c r="R5">
-        <v>7340.890208373726</v>
+        <v>44478.38211967258</v>
       </c>
       <c r="S5">
-        <v>0.09875540515940821</v>
+        <v>0.0939228756283873</v>
       </c>
       <c r="T5">
-        <v>0.09875540515940821</v>
+        <v>0.0773260262774577</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>93.42764966544679</v>
+        <v>93.42766950000001</v>
       </c>
       <c r="H6">
-        <v>93.42764966544679</v>
+        <v>186.855339</v>
       </c>
       <c r="I6">
-        <v>0.3305192438573158</v>
+        <v>0.319845868560297</v>
       </c>
       <c r="J6">
-        <v>0.3305192438573158</v>
+        <v>0.2501060805639032</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N6">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O6">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P6">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q6">
-        <v>1000.847731424001</v>
+        <v>1095.533973689034</v>
       </c>
       <c r="R6">
-        <v>1000.847731424001</v>
+        <v>6573.203842134206</v>
       </c>
       <c r="S6">
-        <v>0.01346418764128993</v>
+        <v>0.01388032067541744</v>
       </c>
       <c r="T6">
-        <v>0.01346418764128993</v>
+        <v>0.01142756792853636</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>93.42764966544679</v>
+        <v>93.42766950000001</v>
       </c>
       <c r="H7">
-        <v>93.42764966544679</v>
+        <v>186.855339</v>
       </c>
       <c r="I7">
-        <v>0.3305192438573158</v>
+        <v>0.319845868560297</v>
       </c>
       <c r="J7">
-        <v>0.3305192438573158</v>
+        <v>0.2501060805639032</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N7">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O7">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P7">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q7">
-        <v>2398.384663207319</v>
+        <v>2401.890660145581</v>
       </c>
       <c r="R7">
-        <v>2398.384663207319</v>
+        <v>9607.562640582324</v>
       </c>
       <c r="S7">
-        <v>0.03226494913014388</v>
+        <v>0.0304317468839848</v>
       </c>
       <c r="T7">
-        <v>0.03226494913014388</v>
+        <v>0.01670282518840545</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>97.2905348664374</v>
+        <v>104.3729526666667</v>
       </c>
       <c r="H8">
-        <v>97.2905348664374</v>
+        <v>313.118858</v>
       </c>
       <c r="I8">
-        <v>0.3441849830716806</v>
+        <v>0.3573166052255298</v>
       </c>
       <c r="J8">
-        <v>0.3441849830716806</v>
+        <v>0.4191099421838055</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N8">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O8">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P8">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q8">
-        <v>1385.823879061077</v>
+        <v>1564.489502296024</v>
       </c>
       <c r="R8">
-        <v>1385.823879061077</v>
+        <v>9386.937013776142</v>
       </c>
       <c r="S8">
-        <v>0.01864318832886867</v>
+        <v>0.0198219466549898</v>
       </c>
       <c r="T8">
-        <v>0.01864318832886867</v>
+        <v>0.01631926575564565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>97.2905348664374</v>
+        <v>104.3729526666667</v>
       </c>
       <c r="H9">
-        <v>97.2905348664374</v>
+        <v>313.118858</v>
       </c>
       <c r="I9">
-        <v>0.3441849830716806</v>
+        <v>0.3573166052255298</v>
       </c>
       <c r="J9">
-        <v>0.3441849830716806</v>
+        <v>0.4191099421838055</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N9">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P9">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q9">
-        <v>5344.390191012424</v>
+        <v>6080.297813462332</v>
       </c>
       <c r="R9">
-        <v>5344.390191012424</v>
+        <v>54722.68032116099</v>
       </c>
       <c r="S9">
-        <v>0.0718969230790775</v>
+        <v>0.07703684730899316</v>
       </c>
       <c r="T9">
-        <v>0.0718969230790775</v>
+        <v>0.09513582137726737</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>97.2905348664374</v>
+        <v>104.3729526666667</v>
       </c>
       <c r="H10">
-        <v>97.2905348664374</v>
+        <v>313.118858</v>
       </c>
       <c r="I10">
-        <v>0.3441849830716806</v>
+        <v>0.3573166052255298</v>
       </c>
       <c r="J10">
-        <v>0.3441849830716806</v>
+        <v>0.4191099421838055</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N10">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O10">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P10">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q10">
-        <v>7670.266443692345</v>
+        <v>8368.510308905596</v>
       </c>
       <c r="R10">
-        <v>7670.266443692345</v>
+        <v>75316.59278015037</v>
       </c>
       <c r="S10">
-        <v>0.1031864322753929</v>
+        <v>0.1060283016801426</v>
       </c>
       <c r="T10">
-        <v>0.1031864322753929</v>
+        <v>0.1309385043902168</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>97.2905348664374</v>
+        <v>104.3729526666667</v>
       </c>
       <c r="H11">
-        <v>97.2905348664374</v>
+        <v>313.118858</v>
       </c>
       <c r="I11">
-        <v>0.3441849830716806</v>
+        <v>0.3573166052255298</v>
       </c>
       <c r="J11">
-        <v>0.3441849830716806</v>
+        <v>0.4191099421838055</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N11">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O11">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P11">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q11">
-        <v>7644.408666234614</v>
+        <v>8281.522480636744</v>
       </c>
       <c r="R11">
-        <v>7644.408666234614</v>
+        <v>74533.70232573069</v>
       </c>
       <c r="S11">
-        <v>0.1028385731987857</v>
+        <v>0.1049261734210216</v>
       </c>
       <c r="T11">
-        <v>0.1028385731987857</v>
+        <v>0.1295774430168974</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.2905348664374</v>
+        <v>104.3729526666667</v>
       </c>
       <c r="H12">
-        <v>97.2905348664374</v>
+        <v>313.118858</v>
       </c>
       <c r="I12">
-        <v>0.3441849830716806</v>
+        <v>0.3573166052255298</v>
       </c>
       <c r="J12">
-        <v>0.3441849830716806</v>
+        <v>0.4191099421838055</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N12">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O12">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P12">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q12">
-        <v>1042.229055946313</v>
+        <v>1223.878495444766</v>
       </c>
       <c r="R12">
-        <v>1042.229055946313</v>
+        <v>11014.90645900289</v>
       </c>
       <c r="S12">
-        <v>0.01402088163251355</v>
+        <v>0.01550643466337881</v>
       </c>
       <c r="T12">
-        <v>0.01402088163251355</v>
+        <v>0.019149503774686</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.2905348664374</v>
+        <v>104.3729526666667</v>
       </c>
       <c r="H13">
-        <v>97.2905348664374</v>
+        <v>313.118858</v>
       </c>
       <c r="I13">
-        <v>0.3441849830716806</v>
+        <v>0.3573166052255298</v>
       </c>
       <c r="J13">
-        <v>0.3441849830716806</v>
+        <v>0.4191099421838055</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N13">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O13">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P13">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q13">
-        <v>2497.548932617521</v>
+        <v>2683.278107262255</v>
       </c>
       <c r="R13">
-        <v>2497.548932617521</v>
+        <v>16099.66864357353</v>
       </c>
       <c r="S13">
-        <v>0.03359898455704216</v>
+        <v>0.0339969014970038</v>
       </c>
       <c r="T13">
-        <v>0.03359898455704216</v>
+        <v>0.02798940386909228</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.231265986431065</v>
+        <v>0.05691833333333333</v>
       </c>
       <c r="H14">
-        <v>0.231265986431065</v>
+        <v>0.170755</v>
       </c>
       <c r="I14">
-        <v>0.0008181502931822288</v>
+        <v>0.00019485762472117</v>
       </c>
       <c r="J14">
-        <v>0.0008181502931822288</v>
+        <v>0.0002285557587770574</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N14">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O14">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P14">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q14">
-        <v>3.29419431037938</v>
+        <v>0.8531725194416666</v>
       </c>
       <c r="R14">
-        <v>3.29419431037938</v>
+        <v>5.11903511665</v>
       </c>
       <c r="S14">
-        <v>4.431608218635967E-05</v>
+        <v>1.080962201603578E-05</v>
       </c>
       <c r="T14">
-        <v>4.431608218635967E-05</v>
+        <v>8.899483863425664E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.231265986431065</v>
+        <v>0.05691833333333333</v>
       </c>
       <c r="H15">
-        <v>0.231265986431065</v>
+        <v>0.170755</v>
       </c>
       <c r="I15">
-        <v>0.0008181502931822288</v>
+        <v>0.00019485762472117</v>
       </c>
       <c r="J15">
-        <v>0.0008181502931822288</v>
+        <v>0.0002285557587770574</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N15">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P15">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q15">
-        <v>12.70396622953889</v>
+        <v>3.315805569071666</v>
       </c>
       <c r="R15">
-        <v>12.70396622953889</v>
+        <v>29.842250121645</v>
       </c>
       <c r="S15">
-        <v>0.0001709037046622018</v>
+        <v>4.201096972015375E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001709037046622018</v>
+        <v>5.188099267810719E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.231265986431065</v>
+        <v>0.05691833333333333</v>
       </c>
       <c r="H16">
-        <v>0.231265986431065</v>
+        <v>0.170755</v>
       </c>
       <c r="I16">
-        <v>0.0008181502931822288</v>
+        <v>0.00019485762472117</v>
       </c>
       <c r="J16">
-        <v>0.0008181502931822288</v>
+        <v>0.0002285557587770574</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N16">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O16">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P16">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q16">
-        <v>18.2327267264469</v>
+        <v>4.563650324111666</v>
       </c>
       <c r="R16">
-        <v>18.2327267264469</v>
+        <v>41.072852917005</v>
       </c>
       <c r="S16">
-        <v>0.000245280921512369</v>
+        <v>5.782105481935791E-05</v>
       </c>
       <c r="T16">
-        <v>0.000245280921512369</v>
+        <v>7.140548627432548E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.231265986431065</v>
+        <v>0.05691833333333333</v>
       </c>
       <c r="H17">
-        <v>0.231265986431065</v>
+        <v>0.170755</v>
       </c>
       <c r="I17">
-        <v>0.0008181502931822288</v>
+        <v>0.00019485762472117</v>
       </c>
       <c r="J17">
-        <v>0.0008181502931822288</v>
+        <v>0.0002285557587770574</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N17">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O17">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P17">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q17">
-        <v>18.17126109241696</v>
+        <v>4.516212725779445</v>
       </c>
       <c r="R17">
-        <v>18.17126109241696</v>
+        <v>40.645914532015</v>
       </c>
       <c r="S17">
-        <v>0.0002444540376577267</v>
+        <v>5.722002455216713E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002444540376577267</v>
+        <v>7.066325044641775E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.231265986431065</v>
+        <v>0.05691833333333333</v>
       </c>
       <c r="H18">
-        <v>0.231265986431065</v>
+        <v>0.170755</v>
       </c>
       <c r="I18">
-        <v>0.0008181502931822288</v>
+        <v>0.00019485762472117</v>
       </c>
       <c r="J18">
-        <v>0.0008181502931822288</v>
+        <v>0.0002285557587770574</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N18">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O18">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P18">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q18">
-        <v>2.477446866146188</v>
+        <v>0.6674250596866668</v>
       </c>
       <c r="R18">
-        <v>2.477446866146188</v>
+        <v>6.006825537180001</v>
       </c>
       <c r="S18">
-        <v>3.33285558130387E-05</v>
+        <v>8.456217769372576E-06</v>
       </c>
       <c r="T18">
-        <v>3.33285558130387E-05</v>
+        <v>1.044291467442216E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.231265986431065</v>
+        <v>0.05691833333333333</v>
       </c>
       <c r="H19">
-        <v>0.231265986431065</v>
+        <v>0.170755</v>
       </c>
       <c r="I19">
-        <v>0.0008181502931822288</v>
+        <v>0.00019485762472117</v>
       </c>
       <c r="J19">
-        <v>0.0008181502931822288</v>
+        <v>0.0002285557587770574</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N19">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O19">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P19">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q19">
-        <v>5.936837723778413</v>
+        <v>1.463288273763333</v>
       </c>
       <c r="R19">
-        <v>5.936837723778413</v>
+        <v>8.77972964258</v>
       </c>
       <c r="S19">
-        <v>7.98669913505329E-05</v>
+        <v>1.853973584408283E-05</v>
       </c>
       <c r="T19">
-        <v>7.98669913505329E-05</v>
+        <v>1.52636308403592E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.188885535294</v>
+        <v>0.2678446666666667</v>
       </c>
       <c r="H20">
-        <v>56.188885535294</v>
+        <v>0.803534</v>
       </c>
       <c r="I20">
-        <v>0.1987795692903866</v>
+        <v>0.0009169554427261318</v>
       </c>
       <c r="J20">
-        <v>0.1987795692903866</v>
+        <v>0.001075531159106112</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N20">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O20">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P20">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q20">
-        <v>800.3645927071808</v>
+        <v>4.014834864203333</v>
       </c>
       <c r="R20">
-        <v>800.3645927071808</v>
+        <v>24.08900918522</v>
       </c>
       <c r="S20">
-        <v>0.0107671314220013</v>
+        <v>5.086761041863078E-05</v>
       </c>
       <c r="T20">
-        <v>0.0107671314220013</v>
+        <v>4.187893687864999E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.188885535294</v>
+        <v>0.2678446666666667</v>
       </c>
       <c r="H21">
-        <v>56.188885535294</v>
+        <v>0.803534</v>
       </c>
       <c r="I21">
-        <v>0.1987795692903866</v>
+        <v>0.0009169554427261318</v>
       </c>
       <c r="J21">
-        <v>0.1987795692903866</v>
+        <v>0.001075531159106112</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N21">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P21">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q21">
-        <v>3086.58318212555</v>
+        <v>15.60342310408733</v>
       </c>
       <c r="R21">
-        <v>3086.58318212555</v>
+        <v>140.430807936786</v>
       </c>
       <c r="S21">
-        <v>0.04152313466850667</v>
+        <v>0.0001976940209253845</v>
       </c>
       <c r="T21">
-        <v>0.04152313466850667</v>
+        <v>0.0002441400929437509</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.188885535294</v>
+        <v>0.2678446666666667</v>
       </c>
       <c r="H22">
-        <v>56.188885535294</v>
+        <v>0.803534</v>
       </c>
       <c r="I22">
-        <v>0.1987795692903866</v>
+        <v>0.0009169554427261318</v>
       </c>
       <c r="J22">
-        <v>0.1987795692903866</v>
+        <v>0.001075531159106112</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N22">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O22">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P22">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q22">
-        <v>4429.862820895164</v>
+        <v>21.47549529755933</v>
       </c>
       <c r="R22">
-        <v>4429.862820895164</v>
+        <v>193.279457678034</v>
       </c>
       <c r="S22">
-        <v>0.05959398455232</v>
+        <v>0.0002720926676420482</v>
       </c>
       <c r="T22">
-        <v>0.05959398455232</v>
+        <v>0.0003360178970334916</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.188885535294</v>
+        <v>0.2678446666666667</v>
       </c>
       <c r="H23">
-        <v>56.188885535294</v>
+        <v>0.803534</v>
       </c>
       <c r="I23">
-        <v>0.1987795692903866</v>
+        <v>0.0009169554427261318</v>
       </c>
       <c r="J23">
-        <v>0.1987795692903866</v>
+        <v>0.001075531159106112</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N23">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O23">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P23">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q23">
-        <v>4414.928997170543</v>
+        <v>21.25226480276689</v>
       </c>
       <c r="R23">
-        <v>4414.928997170543</v>
+        <v>191.270383224902</v>
       </c>
       <c r="S23">
-        <v>0.0593930830579996</v>
+        <v>0.0002692643565840009</v>
       </c>
       <c r="T23">
-        <v>0.0593930830579996</v>
+        <v>0.0003325251048825033</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.188885535294</v>
+        <v>0.2678446666666667</v>
       </c>
       <c r="H24">
-        <v>56.188885535294</v>
+        <v>0.803534</v>
       </c>
       <c r="I24">
-        <v>0.1987795692903866</v>
+        <v>0.0009169554427261318</v>
       </c>
       <c r="J24">
-        <v>0.1987795692903866</v>
+        <v>0.001075531159106112</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N24">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O24">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P24">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q24">
-        <v>601.9258626393586</v>
+        <v>3.140749775469334</v>
       </c>
       <c r="R24">
-        <v>601.9258626393586</v>
+        <v>28.266747979224</v>
       </c>
       <c r="S24">
-        <v>0.008097578189232317</v>
+        <v>3.97930279587422E-05</v>
       </c>
       <c r="T24">
-        <v>0.008097578189232317</v>
+        <v>4.914196948843157E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.188885535294</v>
+        <v>0.2678446666666667</v>
       </c>
       <c r="H25">
-        <v>56.188885535294</v>
+        <v>0.803534</v>
       </c>
       <c r="I25">
-        <v>0.1987795692903866</v>
+        <v>0.0009169554427261318</v>
       </c>
       <c r="J25">
-        <v>0.1987795692903866</v>
+        <v>0.001075531159106112</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N25">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O25">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P25">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q25">
-        <v>1442.426966675596</v>
+        <v>6.885900147990667</v>
       </c>
       <c r="R25">
-        <v>1442.426966675596</v>
+        <v>41.315400887944</v>
       </c>
       <c r="S25">
-        <v>0.01940465740032665</v>
+        <v>8.724375919732514E-05</v>
       </c>
       <c r="T25">
-        <v>0.01940465740032665</v>
+        <v>7.182715787928429E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>35.5309832123493</v>
+        <v>58.20230466666667</v>
       </c>
       <c r="H26">
-        <v>35.5309832123493</v>
+        <v>174.606914</v>
       </c>
       <c r="I26">
-        <v>0.125698053487435</v>
+        <v>0.1992532489352207</v>
       </c>
       <c r="J26">
-        <v>0.125698053487435</v>
+        <v>0.2337115499809108</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N26">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O26">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P26">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q26">
-        <v>506.1097161177007</v>
+        <v>872.4184986051034</v>
       </c>
       <c r="R26">
-        <v>506.1097161177007</v>
+        <v>5234.510991630621</v>
       </c>
       <c r="S26">
-        <v>0.006808584333995812</v>
+        <v>0.01105346690712698</v>
       </c>
       <c r="T26">
-        <v>0.006808584333995812</v>
+        <v>0.009100239604026545</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>35.5309832123493</v>
+        <v>58.20230466666667</v>
       </c>
       <c r="H27">
-        <v>35.5309832123493</v>
+        <v>174.606914</v>
       </c>
       <c r="I27">
-        <v>0.125698053487435</v>
+        <v>0.1992532489352207</v>
       </c>
       <c r="J27">
-        <v>0.125698053487435</v>
+        <v>0.2337115499809108</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N27">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P27">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q27">
-        <v>1951.797658608763</v>
+        <v>3390.603952092868</v>
       </c>
       <c r="R27">
-        <v>1951.797658608763</v>
+        <v>30515.43556883581</v>
       </c>
       <c r="S27">
-        <v>0.0262571109352954</v>
+        <v>0.04295865876245786</v>
       </c>
       <c r="T27">
-        <v>0.0262571109352954</v>
+        <v>0.05305133101098587</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>35.5309832123493</v>
+        <v>58.20230466666667</v>
       </c>
       <c r="H28">
-        <v>35.5309832123493</v>
+        <v>174.606914</v>
       </c>
       <c r="I28">
-        <v>0.125698053487435</v>
+        <v>0.1992532489352207</v>
       </c>
       <c r="J28">
-        <v>0.125698053487435</v>
+        <v>0.2337115499809108</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N28">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O28">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P28">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q28">
-        <v>2801.219138318203</v>
+        <v>4666.59775507738</v>
       </c>
       <c r="R28">
-        <v>2801.219138318203</v>
+        <v>41999.37979569642</v>
       </c>
       <c r="S28">
-        <v>0.03768419402722375</v>
+        <v>0.05912538986403276</v>
       </c>
       <c r="T28">
-        <v>0.03768419402722375</v>
+        <v>0.07301626073045785</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>35.5309832123493</v>
+        <v>58.20230466666667</v>
       </c>
       <c r="H29">
-        <v>35.5309832123493</v>
+        <v>174.606914</v>
       </c>
       <c r="I29">
-        <v>0.125698053487435</v>
+        <v>0.1992532489352207</v>
       </c>
       <c r="J29">
-        <v>0.125698053487435</v>
+        <v>0.2337115499809108</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N29">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O29">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P29">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q29">
-        <v>2791.775750448863</v>
+        <v>4618.090053092895</v>
       </c>
       <c r="R29">
-        <v>2791.775750448863</v>
+        <v>41562.81047783605</v>
       </c>
       <c r="S29">
-        <v>0.03755715417665491</v>
+        <v>0.05851080147613914</v>
       </c>
       <c r="T29">
-        <v>0.03755715417665491</v>
+        <v>0.07225728144802862</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>35.5309832123493</v>
+        <v>58.20230466666667</v>
       </c>
       <c r="H30">
-        <v>35.5309832123493</v>
+        <v>174.606914</v>
       </c>
       <c r="I30">
-        <v>0.125698053487435</v>
+        <v>0.1992532489352207</v>
       </c>
       <c r="J30">
-        <v>0.125698053487435</v>
+        <v>0.2337115499809108</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N30">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O30">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P30">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q30">
-        <v>380.6271919574569</v>
+        <v>682.4809229489895</v>
       </c>
       <c r="R30">
-        <v>380.6271919574569</v>
+        <v>6142.328306540906</v>
       </c>
       <c r="S30">
-        <v>0.005120495129264959</v>
+        <v>0.008646974254470495</v>
       </c>
       <c r="T30">
-        <v>0.005120495129264959</v>
+        <v>0.01067848733253004</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>58.20230466666667</v>
+      </c>
+      <c r="H31">
+        <v>174.606914</v>
+      </c>
+      <c r="I31">
+        <v>0.1992532489352207</v>
+      </c>
+      <c r="J31">
+        <v>0.2337115499809108</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>25.708558</v>
+      </c>
+      <c r="N31">
+        <v>51.417116</v>
+      </c>
+      <c r="O31">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="P31">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="Q31">
+        <v>1496.297325256671</v>
+      </c>
+      <c r="R31">
+        <v>8977.783951540025</v>
+      </c>
+      <c r="S31">
+        <v>0.01895795767099346</v>
+      </c>
+      <c r="T31">
+        <v>0.01560794985488183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>35.7744715</v>
+      </c>
+      <c r="H32">
+        <v>71.54894299999999</v>
+      </c>
+      <c r="I32">
+        <v>0.1224724642115052</v>
+      </c>
+      <c r="J32">
+        <v>0.09576834035349729</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>14.989415</v>
+      </c>
+      <c r="N32">
+        <v>29.97883</v>
+      </c>
+      <c r="O32">
+        <v>0.05547446260572933</v>
+      </c>
+      <c r="P32">
+        <v>0.03893791130463959</v>
+      </c>
+      <c r="Q32">
+        <v>536.2383997191725</v>
+      </c>
+      <c r="R32">
+        <v>2144.95359887669</v>
+      </c>
+      <c r="S32">
+        <v>0.006794094136132671</v>
+      </c>
+      <c r="T32">
+        <v>0.003729019142477014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>35.7744715</v>
+      </c>
+      <c r="H33">
+        <v>71.54894299999999</v>
+      </c>
+      <c r="I33">
+        <v>0.1224724642115052</v>
+      </c>
+      <c r="J33">
+        <v>0.09576834035349729</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>58.255493</v>
+      </c>
+      <c r="N33">
+        <v>174.766479</v>
+      </c>
+      <c r="O33">
+        <v>0.2155982850569436</v>
+      </c>
+      <c r="P33">
+        <v>0.2269949046819425</v>
+      </c>
+      <c r="Q33">
+        <v>2084.059474046949</v>
+      </c>
+      <c r="R33">
+        <v>12504.3568442817</v>
+      </c>
+      <c r="S33">
+        <v>0.02640485325069843</v>
+      </c>
+      <c r="T33">
+        <v>0.02173892529008994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>35.7744715</v>
+      </c>
+      <c r="H34">
+        <v>71.54894299999999</v>
+      </c>
+      <c r="I34">
+        <v>0.1224724642115052</v>
+      </c>
+      <c r="J34">
+        <v>0.09576834035349729</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>80.178917</v>
+      </c>
+      <c r="N34">
+        <v>240.536751</v>
+      </c>
+      <c r="O34">
+        <v>0.2967348847759819</v>
+      </c>
+      <c r="P34">
+        <v>0.3124204205415681</v>
+      </c>
+      <c r="Q34">
+        <v>2868.358381117365</v>
+      </c>
+      <c r="R34">
+        <v>17210.15028670419</v>
+      </c>
+      <c r="S34">
+        <v>0.03634185255603158</v>
+      </c>
+      <c r="T34">
+        <v>0.02991998516780765</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>35.7744715</v>
+      </c>
+      <c r="H35">
+        <v>71.54894299999999</v>
+      </c>
+      <c r="I35">
+        <v>0.1224724642115052</v>
+      </c>
+      <c r="J35">
+        <v>0.09576834035349729</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>79.34548433333335</v>
+      </c>
+      <c r="N35">
+        <v>238.036453</v>
+      </c>
+      <c r="O35">
+        <v>0.2936504262229702</v>
+      </c>
+      <c r="P35">
+        <v>0.3091729161606711</v>
+      </c>
+      <c r="Q35">
+        <v>2838.54276793653</v>
+      </c>
+      <c r="R35">
+        <v>17031.25660761918</v>
+      </c>
+      <c r="S35">
+        <v>0.03596409131628597</v>
+      </c>
+      <c r="T35">
+        <v>0.02960897706295844</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>35.5309832123493</v>
-      </c>
-      <c r="H31">
-        <v>35.5309832123493</v>
-      </c>
-      <c r="I31">
-        <v>0.125698053487435</v>
-      </c>
-      <c r="J31">
-        <v>0.125698053487435</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>25.6710371265428</v>
-      </c>
-      <c r="N31">
-        <v>25.6710371265428</v>
-      </c>
-      <c r="O31">
-        <v>0.09761897296386338</v>
-      </c>
-      <c r="P31">
-        <v>0.09761897296386338</v>
-      </c>
-      <c r="Q31">
-        <v>912.1171891867878</v>
-      </c>
-      <c r="R31">
-        <v>912.1171891867878</v>
-      </c>
-      <c r="S31">
-        <v>0.01227051488500017</v>
-      </c>
-      <c r="T31">
-        <v>0.01227051488500017</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>35.7744715</v>
+      </c>
+      <c r="H36">
+        <v>71.54894299999999</v>
+      </c>
+      <c r="I36">
+        <v>0.1224724642115052</v>
+      </c>
+      <c r="J36">
+        <v>0.09576834035349729</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>11.726012</v>
+      </c>
+      <c r="N36">
+        <v>35.17803600000001</v>
+      </c>
+      <c r="O36">
+        <v>0.04339690469630293</v>
+      </c>
+      <c r="P36">
+        <v>0.04569088405516222</v>
+      </c>
+      <c r="Q36">
+        <v>419.4918821026581</v>
+      </c>
+      <c r="R36">
+        <v>2516.951292615948</v>
+      </c>
+      <c r="S36">
+        <v>0.005314925857308063</v>
+      </c>
+      <c r="T36">
+        <v>0.004375740135246958</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>35.7744715</v>
+      </c>
+      <c r="H37">
+        <v>71.54894299999999</v>
+      </c>
+      <c r="I37">
+        <v>0.1224724642115052</v>
+      </c>
+      <c r="J37">
+        <v>0.09576834035349729</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>25.708558</v>
+      </c>
+      <c r="N37">
+        <v>51.417116</v>
+      </c>
+      <c r="O37">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="P37">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="Q37">
+        <v>919.7100754770969</v>
+      </c>
+      <c r="R37">
+        <v>3678.840301908388</v>
+      </c>
+      <c r="S37">
+        <v>0.01165264709504851</v>
+      </c>
+      <c r="T37">
+        <v>0.006395693554917292</v>
       </c>
     </row>
   </sheetData>
